--- a/RVario6/MfgBOM.xlsx
+++ b/RVario6/MfgBOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\eagle\RVario6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D77EE76-30B4-4291-ACFE-C33D2C1B5119}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7DF2B07B-32CF-4E48-9C1E-9073BA00FAC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16566" windowHeight="5265" xr2:uid="{F8E955CF-521C-46D4-B38B-7E3293F49614}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Batteries</t>
+  </si>
+  <si>
+    <t>TRANSMITTER LITE</t>
+  </si>
+  <si>
+    <t>RFM69</t>
+  </si>
+  <si>
+    <t>PCBA</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502C0D27-91CE-49AE-90DA-A9E1F7CCAB99}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -551,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -559,7 +568,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -567,12 +576,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <f>SUM(B24:B33)</f>
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>3.27</v>
       </c>
     </row>
   </sheetData>
